--- a/Produkte.xlsx
+++ b/Produkte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHBW\Vorlesungen\Infomanagement\Fallstudien\Telegram Shopping Buddy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74C1F88-8875-478F-82B6-4C154DEC62E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F1E2C-988D-4A58-B813-9D49CB308C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1275" windowWidth="28560" windowHeight="16560" xr2:uid="{59E503CD-49BB-4EAE-BDF5-8E3262775F25}"/>
+    <workbookView xWindow="25515" yWindow="1515" windowWidth="22410" windowHeight="16560" xr2:uid="{59E503CD-49BB-4EAE-BDF5-8E3262775F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -702,13 +702,64 @@
   </si>
   <si>
     <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W012.webp</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W013.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W014.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W015.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W016.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W017.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W018.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W019.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W020.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W021.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W022.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W023.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W024.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W025.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W026.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W027.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W028.png</t>
+  </si>
+  <si>
+    <t>https://geniusdbucket.fra1.cdn.digitaloceanspaces.com/ShoppingBuddy/W029.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +771,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -746,9 +803,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1087,7 +1145,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,32 +1573,32 @@
       <c r="A14" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1572,7 +1630,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,7 +1662,7 @@
         <v>125</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1636,7 +1694,7 @@
         <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1668,7 +1726,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1700,7 +1758,7 @@
         <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,7 +1790,7 @@
         <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,7 +1822,7 @@
         <v>157</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1796,7 +1854,7 @@
         <v>163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,7 +1886,7 @@
         <v>170</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1860,7 +1918,7 @@
         <v>175</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1892,7 +1950,7 @@
         <v>181</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1924,7 +1982,7 @@
         <v>186</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,7 +2014,7 @@
         <v>192</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1988,7 +2046,7 @@
         <v>197</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,7 +2078,7 @@
         <v>203</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,7 +2110,7 @@
         <v>209</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2070,5 +2128,6 @@
     <hyperlink ref="J12" r:id="rId11" xr:uid="{2205C20E-4AB7-4C09-890E-D3CDB07E9ADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>